--- a/public/excel/helloworld.xlsx
+++ b/public/excel/helloworld.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>เลขประจำตัวผู้เสียภาษีอากร</t>
   </si>
@@ -59,13 +59,7 @@
     <t>รวมเงินภาษีที่หักนำส่ง</t>
   </si>
   <si>
-    <t>0105498000650</t>
-  </si>
-  <si>
-    <t>บริษัท อิตัลไทยอุตสาหกรรม จำกัด</t>
-  </si>
-  <si>
-    <t>2013 ถนนเพชรบุรีตัดใหม่ แขวงบางกะปิ เขตห้วยขวาง กรุงเทพฯ 10320</t>
+    <t>นางสาว พิมพ์รพี แย้มศรี</t>
   </si>
   <si>
     <t>0105533022910</t>
@@ -74,8 +68,7 @@
     <t>บริษัท ดีเอชแอล เอ๊กเพรส (ประเทศไทย) จำกัด</t>
   </si>
   <si>
-    <t>อาคารบีเอฟเอส คาร์โก้ เทอร์มินอล ห้องเลขที่ ดี 202
-เลขที่ 777 หมู่ 7 ต.ราชาเทวะ อ.บางพลี จ.สมุทรปราการ 10540"</t>
+    <t>อาคารบีเอฟเอส คาร์โก้ เทอร์มินอล ห้องเลขที่ ดี 202 เลขที่ 777 หมู่ 7 ต.ราชาเทวะ อ.บางพลี จ.สมุทรปราการ 10540"</t>
   </si>
   <si>
     <t>0105547017506</t>
@@ -87,43 +80,10 @@
     <t>777 หมู่ 7 ต.ราชาเทวะ อ.บางพลี จ.สมุทรปราการ 10540</t>
   </si>
   <si>
-    <t>06/08/2563</t>
-  </si>
-  <si>
-    <t>หนึ่งพันหนึ่งร้อยหกสิบเอ็ดบาทถ้วน</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>jhbjn</t>
-  </si>
-  <si>
-    <t>vhjb</t>
-  </si>
-  <si>
-    <t>hb</t>
-  </si>
-  <si>
-    <t>vjhbn</t>
-  </si>
-  <si>
-    <t>ghbjn</t>
-  </si>
-  <si>
-    <t>hgjhb</t>
-  </si>
-  <si>
-    <t>h hjb</t>
-  </si>
-  <si>
-    <t>07/06/2020</t>
-  </si>
-  <si>
-    <t>สามร้อยเจ็ดสิบบาทห้าสิบสตางค์</t>
-  </si>
-  <si>
-    <t>g</t>
+    <t>01/01/1970</t>
+  </si>
+  <si>
+    <t>ห้าบาทถ้วน</t>
   </si>
 </sst>
 </file>
@@ -462,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,379 +478,47 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1329900345377</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2">
+        <v>5467</v>
+      </c>
+      <c r="K2">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2">
+        <v>100.0</v>
+      </c>
+      <c r="N2">
+        <v>5.0</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
-      </c>
-      <c r="J2">
-        <v>7512074813</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2">
-        <v>3870.0</v>
-      </c>
-      <c r="N2">
-        <v>1161.0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3">
-        <v>1152</v>
-      </c>
-      <c r="K3">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3">
-        <v>1235.0</v>
-      </c>
-      <c r="N3">
-        <v>370.0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4">
-        <v>1152</v>
-      </c>
-      <c r="K4">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4">
-        <v>1235.0</v>
-      </c>
-      <c r="N4">
-        <v>370.0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5">
-        <v>1152</v>
-      </c>
-      <c r="K5">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5">
-        <v>1235.0</v>
-      </c>
-      <c r="N5">
-        <v>370.0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6">
-        <v>1152</v>
-      </c>
-      <c r="K6">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6">
-        <v>1235.0</v>
-      </c>
-      <c r="N6">
-        <v>370.0</v>
-      </c>
-      <c r="O6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7">
-        <v>1152</v>
-      </c>
-      <c r="K7">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7">
-        <v>1235.0</v>
-      </c>
-      <c r="N7">
-        <v>370.0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8">
-        <v>1152</v>
-      </c>
-      <c r="K8">
-        <v>42</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8">
-        <v>1235.0</v>
-      </c>
-      <c r="N8">
-        <v>370.0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9">
-        <v>1152</v>
-      </c>
-      <c r="K9">
-        <v>42</v>
-      </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9">
-        <v>1235.0</v>
-      </c>
-      <c r="N9">
-        <v>370.0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
